--- a/BackTest/2020-01-26 BackTest TRX.xlsx
+++ b/BackTest/2020-01-26 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>-1131962.34425464</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1131131.68387729</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1184656.717677291</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1184656.717677291</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1074492.37807729</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1074465.37807729</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1074465.37807729</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1093783.722877291</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1135041.66617729</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1135041.66617729</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1100041.66617729</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-956694.7415772905</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-906694.7415772905</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-906094.7415772905</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-906094.7415772905</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-964894.7415772905</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-964894.7415772905</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-727825.2569772905</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-886631.6728772905</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-973733.7608772905</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1069070.95607729</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1069070.95607729</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1093070.95607729</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-983070.9560772905</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-983070.9560772905</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-953277.3367772904</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-801169.1660772904</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-849701.7960772904</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-849701.7960772904</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-849701.7960772904</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-824701.7960772904</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-805366.2958772904</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-507680.9889772904</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-507680.9889772904</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-507680.9889772904</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-508019.2148772904</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-424557.4407772904</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-424557.4407772904</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-437168.8890772904</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-437168.8890772904</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-427234.5521772904</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-441089.2521772904</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1142225.65817729</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1196054.07147729</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-996054.0714772902</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-996583.6880772902</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-996583.6880772902</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-956834.9282772902</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1156834.92827729</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1153030.37091742</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1153030.37091742</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1153030.37091742</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1153030.37091742</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1153030.37091742</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1152358.02231742</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1152456.61481742</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-937356.6148174203</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1719811.90831742</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1719811.90831742</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1719811.90831742</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1719811.90831742</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1719811.90831742</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1719811.90831742</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1719811.90831742</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1719811.90831742</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1970303.09261742</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1970303.09261742</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1964382.04811742</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1912957.19931742</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1912957.19931742</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1907201.56514552</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1910251.56514552</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1914218.93744552</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1912840.44594552</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1912840.44594552</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1898941.81634552</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1898708.71036441</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1900675.89576441</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-2660777.1195094</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-2294409.9122094</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-2299746.7362094</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-2280028.8269094</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-2308431.2975094</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-2308431.2975094</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-2209629.2920094</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-2208575.5797094</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-2211072.908609401</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-2361828.7148094</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-2685002.4117094</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-2682646.8814094</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5401,14 +5401,10 @@
         <v>-3857663.777470041</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>18.66</v>
-      </c>
-      <c r="J152" t="n">
-        <v>18.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
@@ -5438,19 +5434,11 @@
         <v>-3657663.777470041</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="J153" t="n">
-        <v>18.66</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5482,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>18.66</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6475,14 +6457,10 @@
         <v>-2856004.4327627</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J184" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
@@ -6512,19 +6490,11 @@
         <v>-2856004.4327627</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J185" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6553,19 +6523,11 @@
         <v>-2855671.45291117</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J186" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6594,19 +6556,11 @@
         <v>-2903673.50231117</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>18.86</v>
-      </c>
-      <c r="J187" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6638,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6674,19 +6622,11 @@
         <v>-3065459.85361117</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J189" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6715,19 +6655,11 @@
         <v>-3065459.85361117</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="J190" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6756,19 +6688,11 @@
         <v>-3092263.12121117</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="J191" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6797,17 +6721,15 @@
         <v>-3623894.53521117</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>18.77</v>
       </c>
-      <c r="J192" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L192" t="n">
@@ -6838,14 +6760,10 @@
         <v>-3623894.53521117</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="J193" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6882,9 +6800,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6921,9 +6837,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6957,12 +6871,12 @@
         <v>-4013757.48691117</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6996,12 +6910,12 @@
         <v>-4013757.48691117</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7035,12 +6949,12 @@
         <v>-4013757.48691117</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7077,9 +6991,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7113,14 +7025,12 @@
         <v>-3981500.92951117</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>18.73</v>
       </c>
-      <c r="J200" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7154,14 +7064,12 @@
         <v>-4050215.60861117</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>18.76</v>
       </c>
-      <c r="J201" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7195,14 +7103,12 @@
         <v>-4165537.71801117</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>18.72</v>
       </c>
-      <c r="J202" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7236,14 +7142,12 @@
         <v>-4041227.13631117</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>18.71</v>
       </c>
-      <c r="J203" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7277,14 +7181,12 @@
         <v>-4041094.36211117</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>18.72</v>
       </c>
-      <c r="J204" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7318,14 +7220,12 @@
         <v>-4061826.97541117</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>18.74</v>
       </c>
-      <c r="J205" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7359,12 +7259,12 @@
         <v>-4140352.93761117</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7398,14 +7298,12 @@
         <v>-4121990.80041117</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>18.7</v>
       </c>
-      <c r="J207" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7439,14 +7337,12 @@
         <v>-4121711.14591117</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>18.71</v>
       </c>
-      <c r="J208" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7480,12 +7376,12 @@
         <v>-4121711.14591117</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7519,14 +7415,12 @@
         <v>-3982831.14441117</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>18.72</v>
       </c>
-      <c r="J210" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7560,14 +7454,12 @@
         <v>-3982831.14441117</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>18.73</v>
       </c>
-      <c r="J211" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7601,14 +7493,12 @@
         <v>-3982623.14441117</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>18.73</v>
       </c>
-      <c r="J212" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7645,9 +7535,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7684,9 +7572,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7723,9 +7609,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7762,9 +7646,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7801,9 +7683,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7840,9 +7720,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7879,9 +7757,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7915,14 +7791,10 @@
         <v>-3987774.93841117</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="J220" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7959,9 +7831,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7995,12 +7865,12 @@
         <v>-3999939.182711171</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8034,12 +7904,12 @@
         <v>-4015965.28041117</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8073,12 +7943,12 @@
         <v>-4029508.68391117</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8112,14 +7982,12 @@
         <v>-4029323.7078856</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>18.72</v>
       </c>
-      <c r="J225" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8153,14 +8021,12 @@
         <v>-4041323.7078856</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>18.77</v>
       </c>
-      <c r="J226" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8194,12 +8060,12 @@
         <v>-3960272.7078856</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8233,12 +8099,12 @@
         <v>-3952925.7880856</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8275,9 +8141,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8314,9 +8178,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8353,9 +8215,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8392,9 +8252,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8428,14 +8286,10 @@
         <v>-4014773.211185601</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="J233" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8469,14 +8323,10 @@
         <v>-4014717.2455856</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="J234" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8513,9 +8363,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8552,9 +8400,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8591,9 +8437,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8630,9 +8474,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8669,9 +8511,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8708,9 +8548,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8747,9 +8585,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8786,9 +8622,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8825,9 +8659,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8864,9 +8696,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8903,9 +8733,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8942,9 +8770,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8981,9 +8807,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9017,14 +8841,10 @@
         <v>-3991970.207085601</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J248" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9058,14 +8878,10 @@
         <v>-3991970.207085601</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>18.88</v>
-      </c>
-      <c r="J249" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9099,14 +8915,10 @@
         <v>-4021970.207085601</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="n">
-        <v>18.88</v>
-      </c>
-      <c r="J250" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9140,14 +8952,10 @@
         <v>-4021970.207085601</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J251" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9181,14 +8989,12 @@
         <v>-4021970.207085601</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>18.8</v>
       </c>
-      <c r="J252" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9222,14 +9028,10 @@
         <v>-4021870.207085601</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J253" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9263,14 +9065,10 @@
         <v>-4022001.207085601</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>18.88</v>
-      </c>
-      <c r="J254" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9304,14 +9102,10 @@
         <v>-4020989.183780521</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="J255" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9345,14 +9139,10 @@
         <v>-4020989.183780521</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>18.88</v>
-      </c>
-      <c r="J256" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9386,14 +9176,10 @@
         <v>-4027089.183780521</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>18.88</v>
-      </c>
-      <c r="J257" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9427,14 +9213,10 @@
         <v>-4027089.183780521</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="J258" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9468,14 +9250,10 @@
         <v>-3159811.090380521</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="J259" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9512,9 +9290,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9551,9 +9327,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9587,14 +9361,10 @@
         <v>-2842179.6512372</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="J262" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9631,9 +9401,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9667,14 +9435,10 @@
         <v>-2842179.6512372</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J264" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9708,14 +9472,10 @@
         <v>-2842179.6512372</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J265" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9749,14 +9509,10 @@
         <v>-2842179.6512372</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J266" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9793,9 +9549,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9832,9 +9586,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9871,9 +9623,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9907,14 +9657,10 @@
         <v>-3054506.8903372</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="J270" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9948,14 +9694,10 @@
         <v>-3054506.8903372</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="J271" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9989,14 +9731,10 @@
         <v>-3054506.8903372</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="J272" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10033,9 +9771,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10069,14 +9805,10 @@
         <v>-3037195.3593372</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>18.82</v>
-      </c>
-      <c r="J274" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10113,9 +9845,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10149,14 +9879,10 @@
         <v>-2992650.7362372</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="J276" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10193,9 +9919,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10232,9 +9956,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10271,9 +9993,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10307,14 +10027,10 @@
         <v>-2980319.312637201</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
-      </c>
-      <c r="I280" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="J280" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10351,9 +10067,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10390,9 +10104,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10429,9 +10141,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10465,14 +10175,10 @@
         <v>-2980334.775637201</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
-      </c>
-      <c r="I284" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J284" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10509,9 +10215,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10548,9 +10252,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10587,9 +10289,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10626,9 +10326,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10665,9 +10363,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10704,9 +10400,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10743,9 +10437,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10782,9 +10474,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10821,9 +10511,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10860,9 +10548,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10899,9 +10585,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10938,9 +10622,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10977,9 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11016,9 +10696,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11055,9 +10733,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11094,9 +10770,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11133,9 +10807,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11172,9 +10844,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11211,9 +10881,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11250,9 +10918,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11289,9 +10955,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11328,9 +10992,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11367,9 +11029,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11406,9 +11066,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11445,9 +11103,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11484,9 +11140,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11523,9 +11177,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11562,9 +11214,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11601,9 +11251,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11640,9 +11288,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11679,9 +11325,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11718,9 +11362,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11757,9 +11399,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11796,9 +11436,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11835,9 +11473,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11874,9 +11510,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11913,9 +11547,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11952,9 +11584,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11988,14 +11618,10 @@
         <v>-3122734.818370629</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
-      </c>
-      <c r="I323" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J323" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12032,9 +11658,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12068,14 +11692,10 @@
         <v>-3122734.818370629</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J325" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12112,9 +11732,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12148,14 +11766,10 @@
         <v>-3122734.818370629</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J327" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12192,9 +11806,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12228,14 +11840,10 @@
         <v>-3121964.260070629</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
-      </c>
-      <c r="I329" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="J329" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12269,14 +11877,10 @@
         <v>-3121645.323470629</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J330" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12310,14 +11914,10 @@
         <v>-3121645.323470629</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="J331" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12351,14 +11951,10 @@
         <v>-3185167.036470629</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
-      </c>
-      <c r="I332" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="J332" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12395,9 +11991,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12434,9 +12028,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12470,14 +12062,10 @@
         <v>-3167335.349170629</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
-      </c>
-      <c r="I335" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="J335" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12511,14 +12099,12 @@
         <v>-2959685.266270629</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I336" t="n">
         <v>18.76</v>
       </c>
-      <c r="J336" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12555,9 +12141,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12594,9 +12178,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12633,9 +12215,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12672,9 +12252,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12711,9 +12289,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12750,9 +12326,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12789,9 +12363,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12825,14 +12397,10 @@
         <v>-3275737.833732879</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
-      </c>
-      <c r="I344" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="J344" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12866,14 +12434,10 @@
         <v>-3275737.833732879</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
-      </c>
-      <c r="I345" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J345" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12910,9 +12474,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12946,14 +12508,10 @@
         <v>-3278583.082132879</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
-      </c>
-      <c r="I347" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="J347" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12987,14 +12545,10 @@
         <v>-3283583.082132879</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
-      </c>
-      <c r="I348" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="J348" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13031,9 +12585,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13070,9 +12622,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13106,14 +12656,10 @@
         <v>-3353108.217732879</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="n">
-        <v>18.77</v>
-      </c>
-      <c r="J351" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13147,14 +12693,10 @@
         <v>-4357242.273732879</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="J352" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13188,14 +12730,10 @@
         <v>-4335008.231179689</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J353" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13232,9 +12770,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13271,9 +12807,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13307,14 +12841,10 @@
         <v>-4399026.15517969</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="J356" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13351,9 +12881,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13387,12 +12915,12 @@
         <v>-4394720.270479689</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13429,9 +12957,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13465,14 +12991,12 @@
         <v>-4369343.291279689</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>18.8</v>
       </c>
-      <c r="J360" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13506,14 +13030,12 @@
         <v>-4369110.2764177</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
         <v>18.83</v>
       </c>
-      <c r="J361" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13547,12 +13069,12 @@
         <v>-4369110.2764177</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13586,14 +13108,12 @@
         <v>-4374410.2764177</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>18.84</v>
       </c>
-      <c r="J363" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13627,12 +13147,12 @@
         <v>-4392284.376417699</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13666,12 +13186,12 @@
         <v>-4392284.376417699</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13705,12 +13225,12 @@
         <v>-4392430.675817699</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13744,12 +13264,12 @@
         <v>-4392377.641917699</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13783,14 +13303,12 @@
         <v>-4400351.279117699</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I368" t="n">
         <v>18.79</v>
       </c>
-      <c r="J368" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13824,14 +13342,12 @@
         <v>-4400351.279117699</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I369" t="n">
         <v>18.78</v>
       </c>
-      <c r="J369" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13865,14 +13381,12 @@
         <v>-4869088.146317699</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>18.78</v>
       </c>
-      <c r="J370" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13906,14 +13420,10 @@
         <v>-4869088.146317699</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="J371" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13947,12 +13457,12 @@
         <v>-4869088.146317699</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13986,12 +13496,12 @@
         <v>-4869088.146317699</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14025,12 +13535,12 @@
         <v>-4837139.264528569</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14064,12 +13574,12 @@
         <v>-4879477.396741019</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14103,12 +13613,12 @@
         <v>-4864672.915441019</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14142,12 +13652,12 @@
         <v>-4864672.915441019</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14181,12 +13691,12 @@
         <v>-4864672.915441019</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14220,12 +13730,12 @@
         <v>-4908638.709141019</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14259,12 +13769,12 @@
         <v>-4905981.553741019</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14298,12 +13808,12 @@
         <v>-4905981.553741019</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14337,12 +13847,12 @@
         <v>-4905981.553741019</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14376,12 +13886,12 @@
         <v>-4905981.553741019</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14415,12 +13925,12 @@
         <v>-4905981.553741019</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14454,14 +13964,12 @@
         <v>-4903321.56224102</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I385" t="n">
         <v>18.77</v>
       </c>
-      <c r="J385" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14495,14 +14003,12 @@
         <v>-4903321.56226781</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I386" t="n">
         <v>18.8</v>
       </c>
-      <c r="J386" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14536,14 +14042,12 @@
         <v>-4858768.0843946</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I387" t="n">
         <v>18.77</v>
       </c>
-      <c r="J387" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14577,12 +14081,12 @@
         <v>-4806468.0843946</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14616,12 +14120,12 @@
         <v>-5603913.213494601</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>18.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14633,6 +14137,6 @@
       <c r="M389" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest TRX.xlsx
+++ b/BackTest/2020-01-26 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>-1131962.34425464</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1131131.68387729</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1184656.717677291</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1184656.717677291</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1074492.37807729</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1074465.37807729</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1074465.37807729</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1093783.722877291</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1135041.66617729</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1135041.66617729</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1100041.66617729</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-956694.7415772905</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-906694.7415772905</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-906094.7415772905</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-906094.7415772905</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-964894.7415772905</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-964894.7415772905</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-727825.2569772905</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-886631.6728772905</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-973733.7608772905</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1069070.95607729</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1069070.95607729</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1093070.95607729</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-983070.9560772905</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-983070.9560772905</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-953277.3367772904</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-801169.1660772904</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-849701.7960772904</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-849701.7960772904</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-849701.7960772904</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-824701.7960772904</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-805366.2958772904</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-507680.9889772904</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-507680.9889772904</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-507680.9889772904</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-508019.2148772904</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-424557.4407772904</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-424557.4407772904</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-437168.8890772904</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-437168.8890772904</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-427234.5521772904</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-441089.2521772904</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1142225.65817729</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1196054.07147729</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-996054.0714772902</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-996583.6880772902</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-996583.6880772902</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-956834.9282772902</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1156834.92827729</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1153030.37091742</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1153030.37091742</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1153030.37091742</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1153030.37091742</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1153030.37091742</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1152358.02231742</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1152456.61481742</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-937356.6148174203</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1719811.90831742</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1719811.90831742</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1719811.90831742</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1719811.90831742</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1719811.90831742</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1719811.90831742</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1719811.90831742</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1719811.90831742</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1970303.09261742</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1970303.09261742</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1964382.04811742</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1912957.19931742</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1912957.19931742</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1907201.56514552</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1910251.56514552</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1914218.93744552</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1912840.44594552</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1898941.81634552</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1898708.71036441</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1900675.89576441</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -5071,11 +5071,17 @@
         <v>-3767802.269961521</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>18.61</v>
+      </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5110,17 @@
         <v>-3838305.531761521</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>18.66</v>
+      </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5149,17 @@
         <v>-3838305.531761521</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>18.61</v>
+      </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5188,17 @@
         <v>-3838305.531761521</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>18.61</v>
+      </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5227,17 @@
         <v>-3787028.125661521</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>18.61</v>
+      </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5266,17 @@
         <v>-3787028.125661521</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>18.7</v>
+      </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5309,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5346,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5383,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5420,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +5457,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +5494,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +5531,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +5568,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +5605,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +5642,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +5679,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +5716,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +5753,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +5790,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +5827,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +5864,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +5901,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +5938,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +5975,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +6012,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +6049,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6086,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6123,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6160,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6197,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6234,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6271,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6308,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +6345,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6382,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6419,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +6456,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6329,7 +6493,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +6530,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6395,7 +6567,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +6604,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6461,7 +6641,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6494,7 +6678,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +6715,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +6752,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,14 +6785,16 @@
         <v>-2903673.50231117</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
@@ -6721,711 +6919,617 @@
         <v>-3623894.53521117</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="C193" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="D193" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="E193" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="F193" t="n">
+        <v>580317.7125</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-3623894.53521117</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="C194" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="D194" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="E194" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="F194" t="n">
+        <v>269862.9517</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-3893757.48691117</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="C195" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="D195" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="E195" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="F195" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-4013757.48691117</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="C196" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="D196" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="E196" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="F196" t="n">
+        <v>53147.5018</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-4013757.48691117</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
         <v>18.77</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
+      <c r="C197" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="D197" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="E197" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="F197" t="n">
+        <v>3435.5493</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-4013757.48691117</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="C198" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="D198" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E198" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2442.1465</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-4013757.48691117</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="C199" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="D199" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="E199" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="F199" t="n">
+        <v>31556.5574</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-3982200.92951117</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="C200" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="D200" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="E200" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="F200" t="n">
+        <v>700</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-3981500.92951117</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="C201" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="D201" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="E201" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="F201" t="n">
+        <v>68714.67909999999</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-4050215.60861117</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="C202" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="D202" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="E202" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="F202" t="n">
+        <v>115322.1094</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-4165537.71801117</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="C203" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="D203" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="E203" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F203" t="n">
+        <v>124310.5817</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-4041227.13631117</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="C204" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="D204" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="E204" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="F204" t="n">
+        <v>132.7742</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-4041094.36211117</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="C205" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="D205" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="E205" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="F205" t="n">
+        <v>20732.6133</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-4061826.97541117</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C206" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D206" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E206" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F206" t="n">
+        <v>78525.96219999999</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-4140352.93761117</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C207" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="D207" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="E207" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F207" t="n">
+        <v>18362.1372</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-4121990.80041117</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="C208" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="D208" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E208" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="F208" t="n">
+        <v>279.6545</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-4121711.14591117</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="C209" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="D209" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E209" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="F209" t="n">
+        <v>46.3952</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-4121711.14591117</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="J209" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="C210" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="D210" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="E210" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="F210" t="n">
+        <v>138880.0015</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-3982831.14441117</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="J210" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="C193" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="D193" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="E193" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="F193" t="n">
-        <v>580317.7125</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-3623894.53521117</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="C194" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="D194" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="E194" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="F194" t="n">
-        <v>269862.9517</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-3893757.48691117</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="C195" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="D195" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="E195" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="F195" t="n">
-        <v>120000</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-4013757.48691117</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="C196" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="D196" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="E196" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="F196" t="n">
-        <v>53147.5018</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-4013757.48691117</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>18.77</v>
-      </c>
-      <c r="C197" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="D197" t="n">
-        <v>18.77</v>
-      </c>
-      <c r="E197" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="F197" t="n">
-        <v>3435.5493</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-4013757.48691117</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="C198" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="D198" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="E198" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="F198" t="n">
-        <v>2442.1465</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-4013757.48691117</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="C199" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="D199" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="E199" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="F199" t="n">
-        <v>31556.5574</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-3982200.92951117</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="C200" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="D200" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="E200" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="F200" t="n">
-        <v>700</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-3981500.92951117</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="C201" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="D201" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="E201" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="F201" t="n">
-        <v>68714.67909999999</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-4050215.60861117</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="C202" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="D202" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="E202" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="F202" t="n">
-        <v>115322.1094</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-4165537.71801117</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="C203" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="D203" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="E203" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="F203" t="n">
-        <v>124310.5817</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-4041227.13631117</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="C204" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="D204" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="E204" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="F204" t="n">
-        <v>132.7742</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-4041094.36211117</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="C205" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="D205" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="E205" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="F205" t="n">
-        <v>20732.6133</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-4061826.97541117</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="C206" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="D206" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="E206" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="F206" t="n">
-        <v>78525.96219999999</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-4140352.93761117</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="C207" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="D207" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="E207" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="F207" t="n">
-        <v>18362.1372</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-4121990.80041117</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="C208" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="D208" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="E208" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="F208" t="n">
-        <v>279.6545</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-4121711.14591117</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="C209" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="D209" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="E209" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="F209" t="n">
-        <v>46.3952</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-4121711.14591117</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="C210" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="D210" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="E210" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="F210" t="n">
-        <v>138880.0015</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-3982831.14441117</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7459,7 +7563,9 @@
       <c r="I211" t="n">
         <v>18.73</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7493,12 +7599,12 @@
         <v>-3982623.14441117</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7535,7 +7641,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7572,7 +7680,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7609,7 +7719,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7646,7 +7758,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7683,7 +7797,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7720,7 +7836,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7757,7 +7875,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7794,7 +7914,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7831,7 +7953,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7865,12 +7989,12 @@
         <v>-3999939.182711171</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
         <v>18.72</v>
       </c>
-      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7904,12 +8028,12 @@
         <v>-4015965.28041117</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7943,12 +8067,12 @@
         <v>-4029508.68391117</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7982,12 +8106,12 @@
         <v>-4029323.7078856</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
         <v>18.72</v>
       </c>
-      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8021,12 +8145,12 @@
         <v>-4041323.7078856</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>18.77</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8060,12 +8184,12 @@
         <v>-3960272.7078856</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
         <v>18.72</v>
       </c>
-      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8099,12 +8223,12 @@
         <v>-3952925.7880856</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8141,7 +8265,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8178,7 +8304,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8215,7 +8343,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8252,7 +8382,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8289,7 +8421,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8326,7 +8460,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8363,7 +8499,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8400,7 +8538,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8437,7 +8577,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8474,7 +8616,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8511,7 +8655,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8548,7 +8694,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8585,7 +8733,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8622,7 +8772,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8659,7 +8811,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8696,7 +8850,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8733,7 +8889,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8770,7 +8928,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8807,7 +8967,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8844,7 +9006,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8878,17 +9042,19 @@
         <v>-3991970.207085601</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L249" t="n">
-        <v>1</v>
+        <v>1.003547008547009</v>
       </c>
       <c r="M249" t="inlineStr"/>
     </row>
@@ -8915,15 +9081,11 @@
         <v>-4021970.207085601</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8956,11 +9118,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8989,17 +9147,11 @@
         <v>-4021970.207085601</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9032,11 +9184,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9069,11 +9217,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9106,11 +9250,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9139,15 +9279,11 @@
         <v>-4020989.183780521</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9176,15 +9312,11 @@
         <v>-4027089.183780521</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9213,15 +9345,11 @@
         <v>-4027089.183780521</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9254,11 +9382,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9287,15 +9411,11 @@
         <v>-2765446.302237201</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9324,15 +9444,11 @@
         <v>-2781224.503137201</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9365,11 +9481,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9402,11 +9514,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9439,11 +9547,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9476,11 +9580,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9513,11 +9613,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9550,11 +9646,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9587,11 +9679,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9624,11 +9712,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9661,11 +9745,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9698,11 +9778,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9735,11 +9811,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9772,11 +9844,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9809,11 +9877,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9846,11 +9910,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9883,11 +9943,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9920,11 +9976,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9957,11 +10009,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9994,11 +10042,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10031,11 +10075,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10068,11 +10108,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10105,11 +10141,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10142,11 +10174,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10179,11 +10207,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10216,11 +10240,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10253,11 +10273,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10290,11 +10306,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10327,11 +10339,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10364,11 +10372,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10401,11 +10405,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10438,11 +10438,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10475,11 +10471,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10512,11 +10504,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10549,11 +10537,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10586,11 +10570,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10623,11 +10603,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10660,11 +10636,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10697,11 +10669,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10734,11 +10702,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10771,11 +10735,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10808,11 +10768,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10845,11 +10801,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10882,11 +10834,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10919,11 +10867,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10956,11 +10900,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10993,11 +10933,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11030,11 +10966,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11067,11 +10999,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11104,11 +11032,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11141,11 +11065,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11178,11 +11098,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11215,11 +11131,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11252,11 +11164,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11289,11 +11197,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11326,11 +11230,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11363,11 +11263,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11400,11 +11296,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11437,11 +11329,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11474,11 +11362,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11511,11 +11395,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11548,11 +11428,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11585,11 +11461,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11622,11 +11494,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11659,11 +11527,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11696,11 +11560,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11733,11 +11593,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11770,11 +11626,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11807,11 +11659,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11844,11 +11692,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11881,11 +11725,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11918,11 +11758,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11955,11 +11791,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11992,11 +11824,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12029,11 +11857,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12066,11 +11890,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12099,17 +11919,11 @@
         <v>-2959685.266270629</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>18.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12142,11 +11956,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12179,11 +11989,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12216,11 +12022,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12253,11 +12055,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12290,11 +12088,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12327,11 +12121,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +12154,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12401,11 +12187,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12438,11 +12220,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12475,11 +12253,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12508,15 +12282,15 @@
         <v>-3278583.082132879</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="J347" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12545,13 +12319,17 @@
         <v>-3283583.082132879</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="J348" t="n">
+        <v>18.69</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L348" t="n">
@@ -12582,13 +12360,17 @@
         <v>-3274615.021732879</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="J349" t="n">
+        <v>18.69</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L349" t="n">
@@ -12623,11 +12405,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12660,11 +12438,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12693,13 +12467,15 @@
         <v>-4357242.273732879</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>18.71</v>
+      </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L352" t="n">
@@ -12841,9 +12617,11 @@
         <v>-4399026.15517969</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>18.71</v>
+      </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
@@ -12915,11 +12693,9 @@
         <v>-4394720.270479689</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>18.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
@@ -12991,11 +12767,9 @@
         <v>-4369343.291279689</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
@@ -13030,11 +12804,9 @@
         <v>-4369110.2764177</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>18.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
@@ -13069,11 +12841,9 @@
         <v>-4369110.2764177</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>18.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
@@ -13108,11 +12878,9 @@
         <v>-4374410.2764177</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>18.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -13147,11 +12915,9 @@
         <v>-4392284.376417699</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>18.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -13186,11 +12952,9 @@
         <v>-4392284.376417699</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>18.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
@@ -13225,11 +12989,9 @@
         <v>-4392430.675817699</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>18.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -13264,11 +13026,9 @@
         <v>-4392377.641917699</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>18.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
@@ -13303,11 +13063,9 @@
         <v>-4400351.279117699</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>18.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
@@ -13342,11 +13100,9 @@
         <v>-4400351.279117699</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>18.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
@@ -13381,11 +13137,9 @@
         <v>-4869088.146317699</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>18.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
@@ -13457,11 +13211,9 @@
         <v>-4869088.146317699</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>18.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
@@ -13496,11 +13248,9 @@
         <v>-4869088.146317699</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>18.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
@@ -13535,11 +13285,9 @@
         <v>-4837139.264528569</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>18.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
@@ -13574,11 +13322,9 @@
         <v>-4879477.396741019</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>18.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
@@ -13613,11 +13359,9 @@
         <v>-4864672.915441019</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>18.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
@@ -13652,11 +13396,9 @@
         <v>-4864672.915441019</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>18.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
@@ -13691,11 +13433,9 @@
         <v>-4864672.915441019</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>18.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
@@ -13730,11 +13470,9 @@
         <v>-4908638.709141019</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>18.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
@@ -13769,11 +13507,9 @@
         <v>-4905981.553741019</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>18.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
@@ -13808,11 +13544,9 @@
         <v>-4905981.553741019</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>18.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
@@ -13847,11 +13581,9 @@
         <v>-4905981.553741019</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>18.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
@@ -13886,11 +13618,9 @@
         <v>-4905981.553741019</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>18.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
@@ -13925,11 +13655,9 @@
         <v>-4905981.553741019</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>18.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
@@ -13964,11 +13692,9 @@
         <v>-4903321.56224102</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>18.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
@@ -14003,11 +13729,9 @@
         <v>-4903321.56226781</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -14042,11 +13766,9 @@
         <v>-4858768.0843946</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>18.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
@@ -14081,11 +13803,9 @@
         <v>-4806468.0843946</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
@@ -14120,11 +13840,9 @@
         <v>-5603913.213494601</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>18.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
@@ -14137,6 +13855,6 @@
       <c r="M389" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest TRX.xlsx
+++ b/BackTest/2020-01-26 BackTest TRX.xlsx
@@ -1738,7 +1738,7 @@
         <v>-507680.9889772904</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-507680.9889772904</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-508019.2148772904</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-424557.4407772904</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-424557.4407772904</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-437168.8890772904</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-437168.8890772904</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-368657.4407772904</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-427234.5521772904</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-441089.2521772904</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -5071,17 +5071,11 @@
         <v>-3767802.269961521</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>18.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5110,17 +5104,11 @@
         <v>-3838305.531761521</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>18.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5149,17 +5137,11 @@
         <v>-3838305.531761521</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>18.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5188,17 +5170,11 @@
         <v>-3838305.531761521</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>18.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5227,17 +5203,11 @@
         <v>-3787028.125661521</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>18.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5266,17 +5236,11 @@
         <v>-3787028.125661521</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>18.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5309,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5346,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5383,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5420,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5457,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5494,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5531,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5568,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5605,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5642,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5679,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5716,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5753,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5790,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5827,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5864,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5901,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5938,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5975,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6012,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6049,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6086,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6123,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6197,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6234,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6271,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6308,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6345,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6382,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6419,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6456,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6493,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6530,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6567,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6604,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6641,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6678,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6715,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6752,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6785,16 +6589,14 @@
         <v>-2903673.50231117</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
       <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
@@ -7480,14 +7282,10 @@
         <v>-4121711.14591117</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="J209" t="n">
-        <v>18.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
@@ -7517,19 +7315,11 @@
         <v>-3982831.14441117</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="J210" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7558,19 +7348,11 @@
         <v>-3982831.14441117</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="J211" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7602,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7641,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7680,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7716,17 +7480,15 @@
         <v>-3987730.14441117</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>18.73</v>
+      </c>
       <c r="J215" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>18.73</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7759,11 +7521,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>18.72</v>
+        <v>18.73</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L216" t="n">
@@ -7798,11 +7560,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>18.72</v>
+        <v>18.73</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L217" t="n">
@@ -7836,14 +7598,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7875,14 +7631,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7914,14 +7664,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7953,14 +7697,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7992,14 +7730,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8031,14 +7763,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8070,14 +7796,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8109,14 +7829,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8148,14 +7862,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8187,14 +7895,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8226,14 +7928,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8265,14 +7961,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8304,14 +7994,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8343,14 +8027,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8382,14 +8060,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8421,14 +8093,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8460,14 +8126,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8499,14 +8159,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8538,14 +8192,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8577,14 +8225,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8616,14 +8258,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8655,14 +8291,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8694,14 +8324,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8733,14 +8357,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8772,14 +8390,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8811,14 +8423,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8850,14 +8456,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8889,14 +8489,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8928,14 +8522,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8967,14 +8555,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9003,17 +8585,15 @@
         <v>-3991970.207085601</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>18.8</v>
+      </c>
       <c r="J248" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>18.8</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9042,19 +8622,21 @@
         <v>-3991970.207085601</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>18.88</v>
+      </c>
       <c r="J249" t="n">
-        <v>18.72</v>
+        <v>18.8</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L249" t="n">
-        <v>1.003547008547009</v>
+        <v>1</v>
       </c>
       <c r="M249" t="inlineStr"/>
     </row>
@@ -9081,11 +8663,17 @@
         <v>-4021970.207085601</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9114,10 +8702,14 @@
         <v>-4021970.207085601</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J251" t="n">
+        <v>18.8</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
@@ -9147,11 +8739,19 @@
         <v>-4021970.207085601</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J252" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9180,11 +8780,19 @@
         <v>-4021870.207085601</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J253" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9246,10 +8854,14 @@
         <v>-4020989.183780521</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="J255" t="n">
+        <v>18.81</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
@@ -9279,11 +8891,17 @@
         <v>-4020989.183780521</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9312,11 +8930,17 @@
         <v>-4027089.183780521</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9345,7 +8969,7 @@
         <v>-4027089.183780521</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9378,10 +9002,14 @@
         <v>-3159811.090380521</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="J259" t="n">
+        <v>18.85</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
@@ -9411,11 +9039,17 @@
         <v>-2765446.302237201</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9444,11 +9078,17 @@
         <v>-2781224.503137201</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -12282,14 +11922,10 @@
         <v>-3278583.082132879</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="J347" t="n">
-        <v>18.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
@@ -12319,19 +11955,11 @@
         <v>-3283583.082132879</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="J348" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12360,19 +11988,11 @@
         <v>-3274615.021732879</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="J349" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12467,870 +12087,780 @@
         <v>-4357242.273732879</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C353" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D353" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="E353" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F353" t="n">
+        <v>22234.04255319</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-4335008.231179689</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="C354" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="D354" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="E354" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="F354" t="n">
+        <v>51733.3535</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-4386741.584679689</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="C355" t="n">
         <v>18.71</v>
       </c>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
+      <c r="D355" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E355" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="F355" t="n">
+        <v>31419.2054</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-4418160.79007969</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="C356" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="D356" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="E356" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="F356" t="n">
+        <v>19134.6349</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-4399026.15517969</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="C357" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="D357" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E357" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="F357" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-4400026.15517969</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C358" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D358" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="E358" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F358" t="n">
+        <v>5305.8847</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-4394720.270479689</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C359" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D359" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="E359" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F359" t="n">
+        <v>9428.9272</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-4394720.270479689</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="C360" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="D360" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="E360" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="F360" t="n">
+        <v>25376.9792</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-4369343.291279689</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="C361" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="D361" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="E361" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="F361" t="n">
+        <v>233.01486199</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-4369110.2764177</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="C362" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="D362" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="E362" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="F362" t="n">
+        <v>519</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-4369110.2764177</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="C363" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="D363" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="E363" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="F363" t="n">
+        <v>5300</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-4374410.2764177</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="C364" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="D364" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="E364" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="F364" t="n">
+        <v>17874.1</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-4392284.376417699</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="C365" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="D365" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="E365" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="F365" t="n">
+        <v>6288.4244</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-4392284.376417699</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="C366" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="D366" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="E366" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="F366" t="n">
+        <v>146.2994</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-4392430.675817699</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="C367" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="D367" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="E367" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="F367" t="n">
+        <v>53.0339</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-4392377.641917699</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="C368" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="D368" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="E368" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="F368" t="n">
+        <v>7973.6372</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-4400351.279117699</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="C369" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="D369" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="E369" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="F369" t="n">
+        <v>23118.8641</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-4400351.279117699</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="C370" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="D370" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="E370" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="F370" t="n">
+        <v>468736.8672</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-4869088.146317699</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="C371" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="D371" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="E371" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="F371" t="n">
+        <v>240433.1123</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-4869088.146317699</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="C372" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="D372" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="E372" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="F372" t="n">
+        <v>13118.5643</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-4869088.146317699</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="C373" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="D373" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="E373" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="F373" t="n">
+        <v>1734.571</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-4869088.146317699</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="C374" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="D374" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="E374" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="F374" t="n">
+        <v>31948.88178913</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-4837139.264528569</v>
+      </c>
+      <c r="H374" t="n">
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="J374" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="C375" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="D375" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="E375" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="F375" t="n">
+        <v>42338.13221245</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-4879477.396741019</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="K375" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="C353" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="D353" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="E353" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="F353" t="n">
-        <v>22234.04255319</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-4335008.231179689</v>
-      </c>
-      <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="C354" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="D354" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="E354" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="F354" t="n">
-        <v>51733.3535</v>
-      </c>
-      <c r="G354" t="n">
-        <v>-4386741.584679689</v>
-      </c>
-      <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="C355" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="D355" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="E355" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="F355" t="n">
-        <v>31419.2054</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-4418160.79007969</v>
-      </c>
-      <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="C356" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="D356" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="E356" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="F356" t="n">
-        <v>19134.6349</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-4399026.15517969</v>
-      </c>
-      <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="C357" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="D357" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="E357" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="F357" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-4400026.15517969</v>
-      </c>
-      <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="C358" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="D358" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="E358" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="F358" t="n">
-        <v>5305.8847</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-4394720.270479689</v>
-      </c>
-      <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="C359" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="D359" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="E359" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="F359" t="n">
-        <v>9428.9272</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-4394720.270479689</v>
-      </c>
-      <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>18.83</v>
-      </c>
-      <c r="C360" t="n">
-        <v>18.83</v>
-      </c>
-      <c r="D360" t="n">
-        <v>18.83</v>
-      </c>
-      <c r="E360" t="n">
-        <v>18.83</v>
-      </c>
-      <c r="F360" t="n">
-        <v>25376.9792</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-4369343.291279689</v>
-      </c>
-      <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="C361" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="D361" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="E361" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="F361" t="n">
-        <v>233.01486199</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-4369110.2764177</v>
-      </c>
-      <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="C362" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="D362" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="E362" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="F362" t="n">
-        <v>519</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-4369110.2764177</v>
-      </c>
-      <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="C363" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="D363" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="E363" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="F363" t="n">
-        <v>5300</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-4374410.2764177</v>
-      </c>
-      <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="C364" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="D364" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="E364" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="F364" t="n">
-        <v>17874.1</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-4392284.376417699</v>
-      </c>
-      <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="C365" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="D365" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="E365" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="F365" t="n">
-        <v>6288.4244</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-4392284.376417699</v>
-      </c>
-      <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="C366" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="D366" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="E366" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="F366" t="n">
-        <v>146.2994</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-4392430.675817699</v>
-      </c>
-      <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="C367" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="D367" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="E367" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="F367" t="n">
-        <v>53.0339</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-4392377.641917699</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="C368" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="D368" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="E368" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="F368" t="n">
-        <v>7973.6372</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-4400351.279117699</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="C369" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="D369" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="E369" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="F369" t="n">
-        <v>23118.8641</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-4400351.279117699</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="C370" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="D370" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="E370" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="F370" t="n">
-        <v>468736.8672</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-4869088.146317699</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="C371" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="D371" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="E371" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="F371" t="n">
-        <v>240433.1123</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-4869088.146317699</v>
-      </c>
-      <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="C372" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="D372" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="E372" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="F372" t="n">
-        <v>13118.5643</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-4869088.146317699</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="C373" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="D373" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="E373" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="F373" t="n">
-        <v>1734.571</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-4869088.146317699</v>
-      </c>
-      <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="C374" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="D374" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="E374" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="F374" t="n">
-        <v>31948.88178913</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-4837139.264528569</v>
-      </c>
-      <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="C375" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="D375" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="E375" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="F375" t="n">
-        <v>42338.13221245</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-4879477.396741019</v>
-      </c>
-      <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13362,7 +12892,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>18.71</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13396,10 +12928,14 @@
         <v>-4864672.915441019</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="J377" t="n">
+        <v>18.71</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13433,10 +12969,14 @@
         <v>-4864672.915441019</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="J378" t="n">
+        <v>18.71</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13470,10 +13010,14 @@
         <v>-4908638.709141019</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="J379" t="n">
+        <v>18.71</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13507,10 +13051,14 @@
         <v>-4905981.553741019</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="J380" t="n">
+        <v>18.71</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13544,10 +13092,14 @@
         <v>-4905981.553741019</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="J381" t="n">
+        <v>18.71</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13581,10 +13133,14 @@
         <v>-4905981.553741019</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="J382" t="n">
+        <v>18.71</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13618,10 +13174,14 @@
         <v>-4905981.553741019</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="J383" t="n">
+        <v>18.71</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13655,10 +13215,14 @@
         <v>-4905981.553741019</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="J384" t="n">
+        <v>18.71</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13692,10 +13256,14 @@
         <v>-4903321.56224102</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="J385" t="n">
+        <v>18.71</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13729,10 +13297,14 @@
         <v>-4903321.56226781</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J386" t="n">
+        <v>18.71</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13766,10 +13338,14 @@
         <v>-4858768.0843946</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="J387" t="n">
+        <v>18.71</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13803,10 +13379,14 @@
         <v>-4806468.0843946</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J388" t="n">
+        <v>18.71</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13840,10 +13420,14 @@
         <v>-5603913.213494601</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="J389" t="n">
+        <v>18.71</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
